--- a/biology/Zoologie/Coryllis_vernal/Coryllis_vernal.xlsx
+++ b/biology/Zoologie/Coryllis_vernal/Coryllis_vernal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loriculus vernalis
 Le Coryllis vernal (Loriculus vernalis), aussi dit Loricule des Indes ou Loricule vernal, est une espèce d'oiseaux de la famille des Psittacidae endémique du sud de l'Asie.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud-ouest de l'Inde, Bengale, est de l'Himalaya (de l'est du Népal à l'Assam, Myanmar, Thaïlande, péninsule malaise, Cambodge, sud du Laos et du Vietnam. Présent également dans les îles Andaman et l'archipel des îles Mergui.
 </t>
@@ -569,7 +585,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Espèce longtemps considérée comme monotypique, elle est actuellement divisée en 2 sous-espèces :
 Loriculus vernalis phileticus Deignan, 1956 du sud de la Thaïlande aux îles Mergui ;
@@ -601,7 +619,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coryllis vernal vit dans les forêts tropicales humides jusqu'à 2000 mètres d'altitude, dans des forêts de figuiers des banians et dans les plantations d'arbres fruitiers.
 </t>
@@ -632,9 +652,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau, de la même famille que les perroquets et les perruches, ne mesure que 13-14 cm de longueur. Il a un plumage de couleur verte et un bec orange-rouge[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau, de la même famille que les perroquets et les perruches, ne mesure que 13-14 cm de longueur. Il a un plumage de couleur verte et un bec orange-rouge.
 Le mâle a une tache bleue sur la gorge ; la femelle n'a pas de tache bleue sur la gorge.
 </t>
         </is>
@@ -664,7 +686,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le loricule des Indes (coryllis vernal) mange des fruits tendres (il adore par exemple les figues des figuiers étrangleurs tel le banian...), des graines, des bourgeon et boit du nectar de fleurs (nectar des fleurs de bananiers...).
 </t>
@@ -696,6 +720,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,10 +747,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le loricule des Indes vit en couple et entre deux nidifications en petites bandes d'oiseaux.
-La saison des amours se déroule de janvier à avril. Il niche dans le creux d'un arbre ou d'une branche morte près du sol qu'il tapisse de morceaux de feuilles vertes. La femelle pond de 2 à 4 œufs blancs qu'elle couve environ 20 jours. Les oisillons sont nourris par les deux parents puis il quitte leur nid environ 1 mois après leur naissance[2].
+La saison des amours se déroule de janvier à avril. Il niche dans le creux d'un arbre ou d'une branche morte près du sol qu'il tapisse de morceaux de feuilles vertes. La femelle pond de 2 à 4 œufs blancs qu'elle couve environ 20 jours. Les oisillons sont nourris par les deux parents puis il quitte leur nid environ 1 mois après leur naissance.
 </t>
         </is>
       </c>
@@ -754,6 +782,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -781,11 +811,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms vernaculaires
-En siamois (langue thaïlandaise) : นกหกเล็กปากแดง (nok hok lek paak daeng)
-Protection
-Philatélie
-Cette espèce a été figurée en 1988 sur un timbre du Vietnam.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En siamois (langue thaïlandaise) : นกหกเล็กปากแดง (nok hok lek paak daeng)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coryllis_vernal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coryllis_vernal</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>L'animal et l'homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été figurée en 1988 sur un timbre du Vietnam.
 </t>
         </is>
       </c>
